--- a/biology/Histoire de la zoologie et de la botanique/Nathanael_Gottfried_Leske/Nathanael_Gottfried_Leske.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Nathanael_Gottfried_Leske/Nathanael_Gottfried_Leske.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nathanael Gottfried Leske est un naturaliste et un géologue saxon, né le 22 octobre 1751 à Bad Muskau en Saxe et mort le 25 novembre 1786 à Marbourg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l'université de Fribourg et à la Frankesche Stiftungen de Halle. Il devient professeur d'histoire naturelle à l'université de Leipzig en 1775. De 1777 à 1786, il enseigne l'économie dans cette même université. En 1786, il obtient la chaire d'économie et de sciences économiques à l'université Philipps de Marbourg. Mais il a un accident lors de son voyage à Marbourg et meurt peu après.
 Il est très lié avec le géologue Abraham Gottlob Werner (1749-1817) et entretient une correspondance suivie avec Goethe (1749-1832). Sa riche collection de minéraux est arrangée après sa mort par Dietrich Ludwig Gustav Karsten et vendue plus tard à Dublin.
@@ -544,7 +558,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Reise durch Sachsen in Rücksicht der Naturgeschichte und Ökonomie (Leipzig, 1785).</t>
         </is>
